--- a/Outputs/power quantification/power.k2.p2.xlsx
+++ b/Outputs/power quantification/power.k2.p2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Anita's Documents\MSc Utrecht\Master Thesis\01_MasterThesis_BES\Outputs\power quantification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25E27C20-AE02-4625-A91B-25E1BC853FAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1386D2E7-5B45-479E-9744-B94F2CF14B0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4392" yWindow="1788" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="power.k2.p2" sheetId="2" r:id="rId1"/>
@@ -133,15 +133,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -756,10 +754,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I41"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1666,96 +1664,6 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="6"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="6"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="6"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="6"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="6"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="6"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="6"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="6"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="6"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="6"/>
-      <c r="B41" s="7"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
